--- a/data/processed/X_test_sin_outliers.xlsx
+++ b/data/processed/X_test_sin_outliers.xlsx
@@ -665,7 +665,7 @@
         <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>183</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>53.2</v>
+        <v>50.55</v>
       </c>
       <c r="G32" t="n">
         <v>0.759</v>
@@ -1341,7 +1341,7 @@
         <v>167</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>131</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>37.1</v>
       </c>
       <c r="G48" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>56</v>
@@ -1965,7 +1965,7 @@
         <v>80</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G59" t="n">
         <v>0.174</v>
@@ -2225,7 +2225,7 @@
         <v>137</v>
       </c>
       <c r="C69" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>103</v>
       </c>
       <c r="C77" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D77" t="n">
         <v>37</v>
@@ -2875,7 +2875,7 @@
         <v>74</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G94" t="n">
         <v>0.102</v>
@@ -2901,7 +2901,7 @@
         <v>120</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>34.2</v>
       </c>
       <c r="G110" t="n">
-        <v>1.292</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>27</v>
@@ -3395,7 +3395,7 @@
         <v>105</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G114" t="n">
         <v>0.305</v>
@@ -3577,7 +3577,7 @@
         <v>115</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>25.1</v>
       </c>
       <c r="G125" t="n">
-        <v>1.268</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>25</v>
@@ -3759,7 +3759,7 @@
         <v>115</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G128" t="n">
         <v>0.261</v>
@@ -3797,7 +3797,7 @@
         <v>33.3</v>
       </c>
       <c r="G129" t="n">
-        <v>1.353</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>51</v>
@@ -3811,7 +3811,7 @@
         <v>135</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="G130" t="n">
         <v>0.578</v>
@@ -3837,7 +3837,7 @@
         <v>189</v>
       </c>
       <c r="C131" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D131" t="n">
         <v>31</v>
@@ -3979,7 +3979,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="n">
-        <v>1.258</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>22</v>
@@ -4045,7 +4045,7 @@
         <v>158</v>
       </c>
       <c r="C139" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="n">
-        <v>1.224</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>32</v>
@@ -4395,7 +4395,7 @@
         <v>33.3</v>
       </c>
       <c r="G152" t="n">
-        <v>1.251</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>24</v>
